--- a/psp_forms/psp_Project_planSummary.xlsx
+++ b/psp_forms/psp_Project_planSummary.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="16515" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(10)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_10" localSheetId="0">'excel(10)'!$A$1:$D$25</definedName>
+    <definedName name="excel_1" localSheetId="0">'excel-1'!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\usuario\Downloads\excel(10).iqy" name="excel(10)" type="4" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\usuario\AppData\Local\Temp\excel-1.iqy" name="excel-1" type="4" refreshedVersion="4" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -81,7 +81,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 08:55 PM el 20/03/2017</t>
+    <t>Reporte generado a las 10:07 PM el 24/03/2017</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,9 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -734,7 +731,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(10)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel-1" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,7 +1028,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
@@ -1082,10 +1079,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>40.1</v>
+        <v>47.1</v>
       </c>
       <c r="D8" s="7">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1093,11 +1090,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>0.15347222222222223</v>
+        <v>0.17083333333333331</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10">
-        <v>0.9868055555555556</v>
+        <v>1.0041666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1116,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,10 +1155,10 @@
         <v>10.1</v>
       </c>
       <c r="C14" s="7">
-        <v>4.6100000000000003</v>
+        <v>3.92</v>
       </c>
       <c r="D14" s="7">
-        <v>9.35</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,23 +1169,23 @@
         <v>18.7</v>
       </c>
       <c r="C15" s="7">
-        <v>9.2200000000000006</v>
+        <v>7.84</v>
       </c>
       <c r="D15" s="7">
-        <v>17.399999999999999</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>0.48</v>
       </c>
       <c r="C16" s="12">
         <v>0.5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>0.48099999999999998</v>
       </c>
     </row>
@@ -1200,10 +1197,10 @@
         <v>2388</v>
       </c>
       <c r="C17" s="7">
-        <v>1447</v>
+        <v>1700</v>
       </c>
       <c r="D17" s="7">
-        <v>2240</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,12 +1210,12 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
     </row>
